--- a/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_5_DESC.xlsx
+++ b/Datos_Prueba/Resultados/Test_FMT4/Excel_Filas_Ordenadas_5_DESC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egarciar\Documents\CAIXA\AutoHotKeyEGR\Datos_Prueba\Resultados\Test_FMT4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2141CDCF-BE2F-4483-BB92-61E5E2FB4222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27A2BC2C-F70F-4A4D-B141-4DC391ED8031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{803093AE-0081-4707-8BC6-31C87D9A0AF8}"/>
+    <workbookView xWindow="24800" yWindow="740" windowWidth="17570" windowHeight="8220" xr2:uid="{66AC3E7E-D213-4589-BE02-20974723D758}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DE6A7A4-9D8E-4F8B-A45C-F6B074DF821D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D995E195-5234-4CB1-BEF5-10FEB5ACA481}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
